--- a/resources/SponsorshipsREADYapi.xlsx
+++ b/resources/SponsorshipsREADYapi.xlsx
@@ -3,23 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir Right\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir Right\Documents\Default-SoapUI-Pro-Project-readyapi-project-clone\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5CAB04-3291-48A8-B765-6353EBDB4B6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14DCD39-7167-444A-B8C9-32307855AA80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{51A3E59B-6292-4EF5-AC0B-96C31E2402B3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51A3E59B-6292-4EF5-AC0B-96C31E2402B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
-    <sheet name="Response" sheetId="3" r:id="rId2"/>
-    <sheet name="Sponsorships" sheetId="2" r:id="rId3"/>
+    <sheet name="Sponsorships" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -80,30 +79,6 @@
     <t>reason</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>Insufficient funds</t>
   </si>
   <si>
@@ -113,30 +88,6 @@
     <t>Lending not allowed</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -149,47 +100,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>Self sponsoring not allowed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,8 +460,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,7 +483,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -583,7 +500,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -600,7 +517,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -617,7 +534,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -639,74 +556,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D72FFE-983F-4ADB-9E30-794029C67CCC}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB23F19A-9ED1-4CAC-93A8-CF009C54CD1D}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,40 +596,40 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
-        <f>Players!A2</f>
-        <v>0</v>
+        <f>Players!A3</f>
+        <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f>Players!A3</f>
-        <v>1</v>
+        <f>Players!A5</f>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
       <c r="F2">
-        <v>400</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
+        <f>Players!A4</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
         <f>Players!A3</f>
         <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f>Players!A5</f>
-        <v>3</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>201</v>
+        <v>400</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,13 +648,13 @@
         <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
-        <f>Players!A3</f>
-        <v>1</v>
+        <f>Players!A2</f>
+        <v>0</v>
       </c>
       <c r="C5" t="str">
         <f>Players!A5</f>
@@ -805,7 +667,26 @@
         <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>Players!A3</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Players!A3</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
